--- a/src/main/TrackModel/Track Layout & Vehicle Data vF2.xlsx
+++ b/src/main/TrackModel/Track Layout & Vehicle Data vF2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japro\OneDrive\Documents2\Pitt\Systems &amp; Project Engineering\2021 Summer Term\Lectures\Lecture 2 - Project\Project Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralph Gonsalves\Downloads\ECE-1140\ECE-1140\src\main\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28548DF3-BD3E-4F62-BE50-9FA9D7A0FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35727AC2-C0CD-4649-AF68-83C5944EC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>STATION</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -158,15 +155,6 @@
     <t>STATION: HERRON AVE</t>
   </si>
   <si>
-    <t>STATION;     STEEL PLAZA; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; STATION SQUARE</t>
-  </si>
-  <si>
-    <t>STATION; SOUTH HILLS JUNCTION</t>
-  </si>
-  <si>
     <t>Speed Limit (Km/Hr)</t>
   </si>
   <si>
@@ -188,42 +176,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>STATION; PIONEER</t>
-  </si>
-  <si>
-    <t>STATION; EDGEBROOK</t>
-  </si>
-  <si>
-    <t>STATION; WHITED</t>
-  </si>
-  <si>
-    <t>STATION; SOUTH BANK</t>
-  </si>
-  <si>
-    <t>STATION; GLENBURY</t>
-  </si>
-  <si>
-    <t>STATION; DORMONT</t>
-  </si>
-  <si>
-    <t>STATION; POPLAR</t>
-  </si>
-  <si>
-    <t>STATION;   CASTLE SHANNON</t>
-  </si>
-  <si>
-    <t>STATION; CENTRAL; UNDERDROUND</t>
-  </si>
-  <si>
-    <t>STATION; INGLEWOOD; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; OVERBROOK; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; SWISSVILLE</t>
-  </si>
-  <si>
     <t>RAILWAY CROSSING</t>
   </si>
   <si>
@@ -242,9 +194,6 @@
     <t>SWITCH (76-77;77-101)</t>
   </si>
   <si>
-    <t>STATION; MT LEBANON</t>
-  </si>
-  <si>
     <t>SWITCH (85-86; 100-85)</t>
   </si>
   <si>
@@ -254,16 +203,10 @@
     <t>SWITCH (15-16; 1-16)</t>
   </si>
   <si>
-    <t>STATION; PENN STATION; UNDERGROUND</t>
-  </si>
-  <si>
     <t>SWITCH (27-28; 27-76); UNDERGROUND</t>
   </si>
   <si>
     <t>SWITCH (38-39; 38-71); UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; FIRST AVE; UNDERGROUND</t>
   </si>
   <si>
     <t>SWITCH (52-53; 52-66)</t>
@@ -312,6 +255,63 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>STATION: POPLAR</t>
+  </si>
+  <si>
+    <t>STATION: CASTLE SHANNON</t>
+  </si>
+  <si>
+    <t>STATION: PIONEER</t>
+  </si>
+  <si>
+    <t>STATION: EDGEBROOK</t>
+  </si>
+  <si>
+    <t>STATION: STATION</t>
+  </si>
+  <si>
+    <t>STATION: WHITED</t>
+  </si>
+  <si>
+    <t>STATION: SOUTH BANK</t>
+  </si>
+  <si>
+    <t>STATION: CENTRAL UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION: INGLEWOOD; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION: OVERBROOK UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION: GLENBURY</t>
+  </si>
+  <si>
+    <t>STATION: DORMONT</t>
+  </si>
+  <si>
+    <t>STATION: MT LEBANON</t>
+  </si>
+  <si>
+    <t>STATION: SWISSVILLE</t>
+  </si>
+  <si>
+    <t>STATION: PENN STATION; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION: STEEL PLAZA; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION: FIRST AVE; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION: STATION SQUARE</t>
+  </si>
+  <si>
+    <t>STATION: SOUTH HILLS JUNCTION</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,9 +438,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -566,8 +563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37440" y="4166952"/>
-          <a:ext cx="7275415" cy="2600008"/>
+          <a:off x="37440" y="4080910"/>
+          <a:ext cx="6907750" cy="2580640"/>
           <a:chOff x="37440" y="4060590"/>
           <a:chExt cx="6967440" cy="2598420"/>
         </a:xfrm>
@@ -1219,16 +1216,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1621 3257,'296'0,"-282"1,-1 0,26 6,-24-4,-1 0,20 0,441-1,-232-4,-40 2,-188 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3334 3275,'1383'0,"-1368"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">5231 3257,'1253'0,"-1237"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">6980 3239,'1193'0,"-1179"1,-2 0,27 6,14 2,-38-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3239,'589'0,"-572"1,-1 0,25 6,-23-3,-1-2,22 2,13-5,-25 0,-1 1,1 1,-1 2,27 5,-25-4,2 0,-1-2,0-1,38-3,1 0,5 2,-57 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">8878 3081,'6'-1,"0"0,0 0,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,1-1,4-5,-4 4,2 0,-2 1,1 0,0 0,1 1,6-4,23-5,-2-1,64-33,-17 6,42-8,80-33,-184 74,39-10,-39 13,0-2,26-10,-20 5,0 1,1 1,47-10,-58 15,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">10186 2569,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,3-1,31-16,-31 15,49-19,56-17,-91 32,110-43,-82 30,1 3,53-14,-54 19,-1-2,-1-2,54-27,-85 37,1 1,0 1,26-5,26-8,153-79,-77 31,-129 60</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">11751 1951,'1'-1,"-1"-1,0 1,0 0,2 0,-2 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,2-1,23-14,-11 8,28-18,73-33,-67 37,56-38,-73 41,2 2,50-20,-47 22,-2-1,36-22,-42 22,51-21,10-5,-35 8,-45 29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">12967 1298,'12'-1,"1"-1,-1 0,1-1,-1 0,0-1,0 0,-1-1,14-7,-7 3,0 2,28-8,-14 4,0 0,0-2,48-27,38-16,-56 29,72-43,4-3,-125 66,-2 0,1 0,14-12,0 0,-21 15,1 1,1 0,-1 0,0 1,0 0,14-3,-14 4,1-1,0 1,-1-2,1 1,-1-1,0 1,10-7,28-20,-34 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">14367 627,'4'-1,"-1"0,1 0,-1 0,0 0,-1-1,1 1,0-1,0 0,-1 1,2-1,-2-1,0 1,4-4,4-3,6-2,0 1,1 0,-1 1,31-11,-28 13,0-2,0 0,29-20,-26 15,1 0,48-21,-14 7,63-44,28-4,-93 50,-39 19,-1 0,1-1,-2 0,1-1,-2-1,21-17,-26 21,1-1,0 1,-1 1,2-1,-1 1,17-5,22-13,-37 16,4-1,-1-1,1 0,19-19,-26 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1539 3233,'281'0,"-268"1,0 0,24 6,-23-4,-1 0,20 0,418-1,-221-4,-37 2,-179 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3166 3251,'1313'0,"-1299"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">4967 3233,'1189'0,"-1173"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">6627 3215,'1133'0,"-1120"1,-1 0,25 6,13 2,-36-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3215,'559'0,"-543"1,0 0,22 6,-20-3,-2-2,21 2,12-5,-23 0,-2 1,2 1,-1 2,25 5,-23-4,1 0,0-2,-1-1,37-3,0 0,6 2,-55 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">8429 3058,'6'-1,"0"0,-1 0,0-1,1 0,-1 0,-1 0,2-1,-1 1,0-1,-1 0,2-1,4-5,-5 4,3 0,-3 1,2 0,0 0,0 2,7-5,21-5,-2-1,61-33,-16 6,40-7,75-34,-174 74,37-9,-37 12,0-2,25-10,-19 5,-1 1,2 1,44-10,-55 15,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">9671 2550,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,3-1,29-16,-29 15,47-19,52-16,-86 31,105-43,-79 30,2 3,50-13,-51 18,-2-2,0-2,51-27,-81 37,2 1,-1 1,25-5,25-7,145-80,-74 32,-121 59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">11157 1936,'1'-1,"-1"-1,0 2,0-1,2 0,-2 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,1-1,23-14,-11 8,27-18,69-33,-63 38,53-39,-70 41,2 2,48-19,-45 21,-2-1,35-22,-41 22,49-20,10-6,-34 8,-43 29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">12312 1288,'11'-1,"1"-1,0 0,0-1,0 0,-1-1,0 0,0 0,13-8,-7 3,0 2,26-8,-12 4,-1 0,1-2,45-27,36-15,-54 28,70-42,3-4,-119 66,-2 0,2 0,13-12,-1 1,-19 14,1 1,0 0,0 0,0 1,-1 0,14-3,-13 4,1-1,-1 1,0-2,1 1,-2-1,1 1,9-7,27-20,-32 24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">13641 622,'4'-1,"-1"0,0 0,0 0,0 0,-1-1,1 1,0-1,0 0,-2 1,3-1,-2-1,0 1,4-3,3-4,6-2,1 1,0 0,-1 1,30-11,-27 13,0-2,0 0,27-20,-24 16,1-1,45-21,-12 7,58-43,28-5,-89 50,-37 19,0 1,0-2,-2 0,1-1,-1-1,19-17,-24 21,0-1,1 1,-2 1,3-1,-2 1,17-5,21-13,-36 17,4-2,0-1,0 0,18-19,-24 21</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1255,11 +1252,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'5'1,"0"0,0 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,6 7,2-2,325 217,-236-169,22 13,-89-47,81 48,-12-9,-49-29,73 34,-94-50,37 24,18 9,-28-26,-41-16,1 1,30 17,-27-9,-13-9,0-1,1 0,-1 0,1-1,0-1,13 5,-21-9,-1 1,0 0,0-1,0 1,1 0,-1 1,0-1,0 0,2 2,4 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1879 1007,'10'1,"-1"1,1 1,-1-1,1 1,-1 1,-1 0,2 0,-2 1,10 5,11 6,233 98,-228-101,1 2,475 171,-493-181,64 17,95 40,-140-39,-31-19,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3684 1713,'10'1,"1"0,-1 1,0 0,0 0,14 6,13 3,109 24,158 41,330 73,-522-120,29 5,-118-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5691 2207,'7'1,"1"0,-2 0,1 1,-1-1,1 2,0-1,-1 1,7 3,14 6,36 7,0-3,78 11,-72-15,32 6,7 1,160 47,-7 3,-244-66,6 3,-1 1,0 1,24 13,-20-9,12 2,0-1,60 11,9 3,-90-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">7680 2754,'46'-1,"-1"3,1 1,-1 2,52 13,406 88,-188-38,-241-46,0 3,78 38,-12 3,-117-55,1-1,0-1,49 10,9 4,-69-19,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'5'1,"-1"0,1 1,0 0,-1 0,1 0,-2 0,2 1,-1-1,0 1,5 7,3-2,308 215,-225-167,22 12,-85-46,78 47,-13-8,-45-29,68 33,-88-49,34 24,18 8,-27-25,-39-16,1 1,28 17,-25-9,-13-9,1-1,0 0,0 0,0-1,1-1,12 5,-21-9,0 1,0 0,0-1,0 1,1 0,-1 1,0-2,0 1,1 2,5 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1784 1000,'10'0,"-2"2,2 1,-2-1,2 1,-2 1,0 0,1 0,-1 1,9 5,10 6,222 97,-216-100,0 2,451 170,-468-180,61 16,90 41,-133-39,-29-19,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3498 1700,'9'1,"2"0,-2 1,1 0,-1 0,14 6,12 3,104 24,149 40,314 73,-495-119,27 5,-113-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5403 2191,'7'1,"1"0,-3 0,2 1,-1-1,0 1,1 0,-1 1,6 3,14 6,33 7,1-3,74 11,-68-15,30 6,6 1,153 46,-8 3,-230-65,4 3,0 1,0 1,23 13,-20-9,13 2,-1-1,57 11,8 2,-85-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">7292 2733,'44'-1,"-2"3,2 1,-1 2,49 13,385 88,-178-39,-228-45,-1 3,74 37,-11 4,-111-55,1-1,0-2,46 11,9 4,-66-19,0-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1286,14 +1283,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1585 1061,'2'-128,"-4"-140,0 257,0 0,-1-1,0 1,0 0,-2 1,0-1,1 1,-10-12,-15-40,21 45,-2 0,1 1,-1-1,-2 2,0 0,-22-22,4 4,13 15,0 0,-1 2,-40-28,-68-33,115 71,-28-15,-3 2,0 1,-1 3,0 1,-1 2,-91-14,90 19,12 1,-2 1,2 2,-61 1,84 5,1-1,0 1,-1 1,1 0,0 0,1 0,0 1,-1 0,-13 13,11-8,1 0,-1 1,2 1,-13 18,-10 12,23-30,0 0,0 1,2 1,0-1,0 1,-7 23,-19 92,19-60,-24 125,35-155,3 48,1-54,-2 0,-6 51,-7-23,-37 98,-5 46,48-175,-3 30,2-1,2 1,3 63,5-94,2 0,1 0,2 0,11 39,48 110,-50-141,40 83,-32-73,27 75,-38-91,0-2,3 2,0-2,37 46,-1 5,-42-67,1 0,0 0,0-1,2-1,-1 1,2-2,-1 1,22 11,8 2,69 31,-102-52,0 0,-1 0,2-1,-2 0,2-1,16 1,-1-2,31-3,-49 2,0 0,-1-1,0 0,1 0,-1 0,-1-1,1 0,0 0,0 0,8-8,6-5,25-27,-20 19,10-12,45-60,20-23,-82 99,-1-1,-2-2,24-41,-9 14,-21 36,-2 0,0 0,0 0,-2-1,0 0,-1 0,-1 0,0-1,2-27,2-15,2-14,-7 43,3 0,1 0,0 0,21-51,-16 52,-2 0,0-1,-3 0,5-47,-1 15,-7 45,3-32,-5 32,2-1,0 0,2 0,0 1,7-19,-2 10,5-26,-9 30,13-35,-12 43,-2 0,0-1,-2 0,1 0,-1 0,1-20,-5-178,1 197</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1505 1053,'2'-127,"-4"-139,0 255,0 0,-1-1,0 1,1 0,-3 2,0-2,1 1,-9-12,-15-40,21 45,-3 1,2 0,-2-1,-1 2,0 0,-22-22,5 5,12 14,-1 0,0 2,-38-28,-64-32,108 70,-26-15,-3 2,0 1,0 3,-1 2,-1 1,-86-14,85 19,12 1,-2 1,1 2,-57 1,79 5,2-1,-1 1,0 1,0 0,1 0,0 0,1 1,-2 0,-12 13,11-8,0-1,0 2,1 1,-12 18,-9 12,21-30,1 0,-1 0,3 2,-1-1,0 1,-6 23,-18 91,17-60,-22 125,34-154,2 47,1-53,-2 0,-6 50,-6-23,-36 98,-4 46,45-174,-2 29,1 0,3 0,2 63,5-93,2 0,1 0,1-1,11 40,46 109,-48-141,39 83,-32-72,27 74,-37-90,1-2,2 1,0-1,36 46,-2 4,-39-66,0 0,1 0,-1-1,2-1,0 1,1-3,0 2,20 11,8 2,65 31,-96-52,-1 0,0 0,1-1,-1 0,1-1,16 1,-1-2,29-3,-46 2,-1 0,0-1,0 0,0 0,0 0,-1-1,0 0,1 0,0 0,7-8,6-5,24-27,-19 19,9-11,43-61,19-22,-78 98,-1 0,-2-3,23-41,-8 15,-21 35,-1 0,0 0,-1 0,-1-1,0 0,-1 0,-2 0,1 0,2-28,2-15,1-13,-6 42,3 0,0 1,1-1,20-51,-16 53,-1-1,-1-1,-2 0,5-46,-2 14,-6 45,3-31,-6 31,3-1,0 0,2 0,0 1,6-18,-1 9,4-26,-8 30,12-34,-12 42,-1 0,0-1,-2 0,0 0,0 0,1-19,-5-178,1 196</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1331,9 +1328,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,26 +1363,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,26 +1398,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1615,33 +1578,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.73046875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="31.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1659,14 +1622,14 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.46484375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1683,22 +1646,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1726,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -1757,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="1">A3</f>
         <v>Blue</v>
@@ -1788,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1819,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1840,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="12">
@@ -1852,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1873,7 +1836,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="12">
@@ -1885,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1916,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1947,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1978,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1999,7 +1962,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="12">
@@ -2011,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2032,7 +1995,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="12">
@@ -2044,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2075,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2106,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2137,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2158,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="12">
@@ -2170,29 +2133,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I21" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="17">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
         <v>1</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>2</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>4</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="17" t="s">
-        <v>87</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2207,25 +2170,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="43" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.9296875" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2242,23 +2205,23 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2287,7 +2250,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -2317,7 +2280,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -2347,7 +2310,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2376,7 +2339,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2405,7 +2368,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2434,7 +2397,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2455,10 +2418,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
@@ -2469,7 +2432,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2498,7 +2461,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2519,7 +2482,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="0"/>
@@ -2530,7 +2493,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2559,7 +2522,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2573,7 +2536,7 @@
       <c r="D12" s="3">
         <v>75</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>-0.5</v>
       </c>
       <c r="F12" s="3">
@@ -2588,7 +2551,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2599,10 +2562,10 @@
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>75</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="3">
         <v>-1</v>
       </c>
       <c r="F13" s="3">
@@ -2617,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2628,10 +2591,10 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>70</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>-2</v>
       </c>
       <c r="F14" s="3">
@@ -2646,7 +2609,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2657,10 +2620,10 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>60</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="3">
         <v>-1.25</v>
       </c>
       <c r="F15" s="3">
@@ -2675,7 +2638,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2696,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" si="0"/>
@@ -2707,7 +2670,7 @@
         <v>0.25000000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2728,10 +2691,10 @@
         <v>40</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="0"/>
@@ -2742,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2771,7 +2734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2801,7 +2764,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2830,7 +2793,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2859,7 +2822,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2880,10 +2843,10 @@
         <v>55</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="0"/>
@@ -2894,7 +2857,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2923,7 +2886,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2952,7 +2915,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2973,7 +2936,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="0"/>
@@ -2984,7 +2947,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3005,10 +2968,10 @@
         <v>70</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="0"/>
@@ -3019,7 +2982,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3040,7 +3003,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="0"/>
@@ -3051,7 +3014,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3072,7 +3035,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="0"/>
@@ -3083,7 +3046,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3104,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" si="0"/>
@@ -3115,7 +3078,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3136,7 +3099,7 @@
         <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="12">
         <f t="shared" si="0"/>
@@ -3147,7 +3110,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3168,7 +3131,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="0"/>
@@ -3179,7 +3142,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3200,7 +3163,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" si="0"/>
@@ -3211,7 +3174,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3232,7 +3195,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="0"/>
@@ -3243,7 +3206,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3264,7 +3227,7 @@
         <v>70</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="12">
         <f t="shared" si="0"/>
@@ -3275,7 +3238,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3296,7 +3259,7 @@
         <v>70</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="12">
         <f t="shared" si="0"/>
@@ -3307,7 +3270,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3328,10 +3291,10 @@
         <v>70</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I36" s="12">
         <f t="shared" si="0"/>
@@ -3342,7 +3305,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3363,7 +3326,7 @@
         <v>70</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="12">
         <f t="shared" si="0"/>
@@ -3374,7 +3337,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -3395,7 +3358,7 @@
         <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="12">
         <f t="shared" si="0"/>
@@ -3406,7 +3369,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3427,7 +3390,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I39" s="12">
         <f t="shared" si="0"/>
@@ -3438,7 +3401,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3459,7 +3422,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" s="12">
         <f t="shared" si="0"/>
@@ -3470,7 +3433,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3491,7 +3454,7 @@
         <v>70</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="12">
         <f t="shared" si="0"/>
@@ -3502,7 +3465,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3523,7 +3486,7 @@
         <v>70</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="12">
         <f t="shared" si="0"/>
@@ -3534,7 +3497,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3555,7 +3518,7 @@
         <v>70</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="12">
         <f t="shared" si="0"/>
@@ -3566,7 +3529,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3587,7 +3550,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="0"/>
@@ -3598,7 +3561,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3619,7 +3582,7 @@
         <v>70</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45" s="12">
         <f t="shared" si="0"/>
@@ -3630,7 +3593,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3651,10 +3614,10 @@
         <v>70</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I46" s="12">
         <f t="shared" si="0"/>
@@ -3665,7 +3628,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3686,7 +3649,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47" s="12">
         <f t="shared" si="0"/>
@@ -3697,7 +3660,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3718,7 +3681,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I48" s="12">
         <f t="shared" si="0"/>
@@ -3729,7 +3692,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3750,10 +3713,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I49" s="12">
         <f t="shared" si="0"/>
@@ -3764,13 +3727,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3">
         <v>49</v>
@@ -3793,13 +3756,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="5">
         <v>50</v>
@@ -3822,13 +3785,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="3">
         <v>51</v>
@@ -3851,13 +3814,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3">
         <v>52</v>
@@ -3872,7 +3835,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" si="0"/>
@@ -3883,13 +3846,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="5">
         <v>53</v>
@@ -3912,13 +3875,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="3">
         <v>54</v>
@@ -3941,13 +3904,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3">
         <v>55</v>
@@ -3970,13 +3933,13 @@
         <v>-0.8660000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="5">
         <v>56</v>
@@ -3999,13 +3962,13 @@
         <v>-0.4910000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="3">
         <v>57</v>
@@ -4028,13 +3991,13 @@
         <v>-0.1160000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="3">
         <v>58</v>
@@ -4057,13 +4020,13 @@
         <v>0.6339999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5">
         <v>59</v>
@@ -4086,13 +4049,13 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="3">
         <v>60</v>
@@ -4107,10 +4070,10 @@
         <v>55</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I61" s="12">
         <f t="shared" si="0"/>
@@ -4121,13 +4084,13 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="3">
         <v>61</v>
@@ -4150,13 +4113,13 @@
         <v>0.6339999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -4179,13 +4142,13 @@
         <v>-0.1160000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" s="3">
         <v>63</v>
@@ -4208,13 +4171,13 @@
         <v>-0.8660000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65" s="3">
         <v>64</v>
@@ -4237,13 +4200,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -4266,13 +4229,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" s="3">
         <v>66</v>
@@ -4295,13 +4258,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" s="3">
         <v>67</v>
@@ -4316,7 +4279,7 @@
         <v>55</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68" s="12">
         <f t="shared" si="3"/>
@@ -4327,13 +4290,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -4348,7 +4311,7 @@
         <v>55</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" s="12">
         <f t="shared" si="3"/>
@@ -4359,13 +4322,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="3">
         <v>69</v>
@@ -4380,7 +4343,7 @@
         <v>55</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" s="12">
         <f t="shared" si="3"/>
@@ -4391,13 +4354,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Red</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="3">
         <v>70</v>
@@ -4412,7 +4375,7 @@
         <v>55</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I71" s="12">
         <f t="shared" si="3"/>
@@ -4423,13 +4386,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="5">
         <v>71</v>
@@ -4444,7 +4407,7 @@
         <v>55</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I72" s="12">
         <f t="shared" si="3"/>
@@ -4455,13 +4418,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="3">
         <v>72</v>
@@ -4476,7 +4439,7 @@
         <v>55</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I73" s="12">
         <f t="shared" si="3"/>
@@ -4487,13 +4450,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" s="3">
         <v>73</v>
@@ -4508,7 +4471,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I74" s="12">
         <f t="shared" si="3"/>
@@ -4519,13 +4482,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="5">
         <v>74</v>
@@ -4540,7 +4503,7 @@
         <v>55</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I75" s="12">
         <f t="shared" si="3"/>
@@ -4551,13 +4514,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" s="3">
         <v>75</v>
@@ -4572,7 +4535,7 @@
         <v>55</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I76" s="12">
         <f t="shared" si="3"/>
@@ -4583,13 +4546,13 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" s="3">
         <v>76</v>
@@ -4604,7 +4567,7 @@
         <v>55</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I77" s="12">
         <f t="shared" si="3"/>
@@ -4615,538 +4578,538 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A154" si="6">A134</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
@@ -5164,26 +5127,26 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="31" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="3"/>
-    <col min="9" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="8.77734375" style="3"/>
+    <col min="9" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5200,25 +5163,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5245,12 +5208,12 @@
         <f>I2</f>
         <v>0.5</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f t="shared" ref="K2:K65" si="0">D2*(1/(F2*1000/(60*60)))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -5271,10 +5234,10 @@
         <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="1">E3*D3/100</f>
@@ -5284,12 +5247,12 @@
         <f>I3+J2</f>
         <v>1.5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="2">A3</f>
         <v>Green</v>
@@ -5317,13 +5280,13 @@
         <f t="shared" ref="J4:J67" si="3">I4+J3</f>
         <v>3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5351,12 +5314,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5384,12 +5347,12 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5417,12 +5380,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5451,12 +5414,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5484,12 +5447,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5510,10 +5473,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -5523,12 +5486,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5542,7 +5505,7 @@
       <c r="D11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>-4.5</v>
       </c>
       <c r="F11" s="3">
@@ -5556,12 +5519,12 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5589,12 +5552,12 @@
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5615,7 +5578,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="1"/>
@@ -5625,12 +5588,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5658,12 +5621,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5691,12 +5654,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5724,12 +5687,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5750,10 +5713,10 @@
         <v>70</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
@@ -5763,12 +5726,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5796,12 +5759,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5829,12 +5792,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5855,7 +5818,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
@@ -5865,12 +5828,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5898,12 +5861,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5931,12 +5894,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5957,10 +5920,10 @@
         <v>70</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
@@ -5970,12 +5933,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6003,12 +5966,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6036,12 +5999,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6069,12 +6032,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6102,12 +6065,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6135,12 +6098,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6168,12 +6131,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6194,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="1"/>
@@ -6204,12 +6167,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6237,12 +6200,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6263,10 +6226,10 @@
         <v>30</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="1"/>
@@ -6276,12 +6239,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6309,12 +6272,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6342,12 +6305,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6375,12 +6338,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6408,12 +6371,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6434,7 +6397,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="1"/>
@@ -6444,12 +6407,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -6470,7 +6433,7 @@
         <v>30</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="1"/>
@@ -6480,12 +6443,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6506,7 +6469,7 @@
         <v>30</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="1"/>
@@ -6516,12 +6479,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6542,10 +6505,10 @@
         <v>30</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
@@ -6555,12 +6518,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6581,7 +6544,7 @@
         <v>30</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="1"/>
@@ -6591,12 +6554,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6617,7 +6580,7 @@
         <v>30</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="1"/>
@@ -6627,12 +6590,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6653,7 +6616,7 @@
         <v>30</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="1"/>
@@ -6663,12 +6626,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6689,7 +6652,7 @@
         <v>30</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="1"/>
@@ -6699,12 +6662,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6725,7 +6688,7 @@
         <v>30</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="1"/>
@@ -6735,12 +6698,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6761,7 +6724,7 @@
         <v>30</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="1"/>
@@ -6771,12 +6734,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6797,7 +6760,7 @@
         <v>30</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="1"/>
@@ -6807,12 +6770,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6833,7 +6796,7 @@
         <v>30</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="1"/>
@@ -6843,12 +6806,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6869,10 +6832,10 @@
         <v>30</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
@@ -6882,12 +6845,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6908,7 +6871,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="1"/>
@@ -6918,12 +6881,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6944,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="1"/>
@@ -6954,12 +6917,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6980,7 +6943,7 @@
         <v>30</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="1"/>
@@ -6990,12 +6953,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7016,7 +6979,7 @@
         <v>30</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="1"/>
@@ -7026,12 +6989,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7052,7 +7015,7 @@
         <v>30</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="1"/>
@@ -7062,12 +7025,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7088,7 +7051,7 @@
         <v>30</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="1"/>
@@ -7098,12 +7061,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7124,7 +7087,7 @@
         <v>30</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="1"/>
@@ -7134,12 +7097,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7160,7 +7123,7 @@
         <v>30</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="1"/>
@@ -7170,12 +7133,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7196,10 +7159,10 @@
         <v>30</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
@@ -7209,18 +7172,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3">
         <v>58</v>
@@ -7235,7 +7198,7 @@
         <v>30</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="1"/>
@@ -7245,18 +7208,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="5">
         <v>59</v>
@@ -7278,18 +7241,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="3">
         <v>60</v>
@@ -7311,18 +7274,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="3">
         <v>61</v>
@@ -7344,18 +7307,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -7370,7 +7333,7 @@
         <v>30</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="1"/>
@@ -7380,18 +7343,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3">
         <v>63</v>
@@ -7413,18 +7376,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="15">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3">
         <v>64</v>
@@ -7446,18 +7409,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="15">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -7472,10 +7435,10 @@
         <v>70</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="1"/>
@@ -7485,18 +7448,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="15">
         <f t="shared" ref="K66:K129" si="4">D66*(1/(F66*1000/(60*60)))</f>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="3">
         <v>66</v>
@@ -7518,18 +7481,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="15">
         <f t="shared" si="4"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3">
         <v>67</v>
@@ -7551,18 +7514,18 @@
         <f t="shared" ref="J68:J77" si="6">I68+J67</f>
         <v>0.5</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -7584,18 +7547,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3">
         <v>69</v>
@@ -7617,18 +7580,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="7">A70</f>
         <v>Green</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="3">
         <v>70</v>
@@ -7650,18 +7613,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="5">
         <v>71</v>
@@ -7683,18 +7646,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="3">
         <v>72</v>
@@ -7716,18 +7679,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3">
         <v>73</v>
@@ -7742,10 +7705,10 @@
         <v>40</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="5"/>
@@ -7755,18 +7718,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75" s="5">
         <v>74</v>
@@ -7788,18 +7751,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" s="3">
         <v>75</v>
@@ -7821,18 +7784,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" s="3">
         <v>76</v>
@@ -7847,7 +7810,7 @@
         <v>40</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="5"/>
@@ -7857,18 +7820,18 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78" s="3">
         <v>77</v>
@@ -7883,10 +7846,10 @@
         <v>70</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="8">E78*D78/100</f>
@@ -7896,18 +7859,18 @@
         <f t="shared" ref="J78:J109" si="9">I78+J77</f>
         <v>0.5</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="5">
         <v>78</v>
@@ -7929,18 +7892,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="3">
         <v>79</v>
@@ -7962,18 +7925,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" s="3">
         <v>80</v>
@@ -7995,18 +7958,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="3">
         <v>81</v>
@@ -8028,18 +7991,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="5">
         <v>82</v>
@@ -8061,18 +8024,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" s="3">
         <v>83</v>
@@ -8094,18 +8057,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="3">
         <v>84</v>
@@ -8127,18 +8090,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="3">
         <v>85</v>
@@ -8153,7 +8116,7 @@
         <v>70</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="8"/>
@@ -8163,18 +8126,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" s="5">
         <v>86</v>
@@ -8196,18 +8159,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="15">
         <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="3">
         <v>87</v>
@@ -8229,18 +8192,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="15">
         <f t="shared" si="4"/>
         <v>12.470399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="3">
         <v>88</v>
@@ -8255,10 +8218,10 @@
         <v>25</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="8"/>
@@ -8268,18 +8231,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="15">
         <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="3">
         <v>89</v>
@@ -8301,18 +8264,18 @@
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" s="5">
         <v>90</v>
@@ -8334,18 +8297,18 @@
         <f t="shared" si="9"/>
         <v>-0.625</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="3">
         <v>91</v>
@@ -8367,18 +8330,18 @@
         <f t="shared" si="9"/>
         <v>-2.125</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3">
         <v>92</v>
@@ -8400,18 +8363,18 @@
         <f t="shared" si="9"/>
         <v>-2.125</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3">
         <v>93</v>
@@ -8433,18 +8396,18 @@
         <f t="shared" si="9"/>
         <v>-0.625</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" s="5">
         <v>94</v>
@@ -8466,18 +8429,18 @@
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96" s="3">
         <v>95</v>
@@ -8499,18 +8462,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" s="3">
         <v>96</v>
@@ -8525,10 +8488,10 @@
         <v>25</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="8"/>
@@ -8538,18 +8501,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K97" s="16">
+      <c r="K97" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" s="3">
         <v>97</v>
@@ -8571,18 +8534,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" s="5">
         <v>98</v>
@@ -8604,18 +8567,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="3">
         <v>99</v>
@@ -8637,18 +8600,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="3">
         <v>100</v>
@@ -8670,18 +8633,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="3">
         <v>101</v>
@@ -8703,18 +8666,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="15">
         <f t="shared" si="4"/>
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" s="5">
         <v>102</v>
@@ -8736,18 +8699,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C104" s="3">
         <v>103</v>
@@ -8769,18 +8732,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" s="3">
         <v>104</v>
@@ -8802,18 +8765,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="15">
         <f t="shared" si="4"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" s="3">
         <v>105</v>
@@ -8829,10 +8792,10 @@
       </c>
       <c r="G106" s="11" t="str">
         <f>G74</f>
-        <v>STATION; DORMONT</v>
+        <v>STATION: DORMONT</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="8"/>
@@ -8842,18 +8805,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" s="5">
         <v>106</v>
@@ -8875,18 +8838,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" s="3">
         <v>107</v>
@@ -8908,18 +8871,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="15">
         <f t="shared" si="4"/>
         <v>11.571428571428573</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="3">
         <v>108</v>
@@ -8941,18 +8904,18 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" s="3">
         <v>109</v>
@@ -8974,18 +8937,18 @@
         <f t="shared" ref="J110:J151" si="11">I110+J109</f>
         <v>0.5</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K110" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -9007,18 +8970,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K111" s="16">
+      <c r="K111" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -9040,18 +9003,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K112" s="16">
+      <c r="K112" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -9073,18 +9036,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K113" s="16">
+      <c r="K113" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -9106,18 +9069,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -9134,10 +9097,10 @@
       </c>
       <c r="G115" s="11" t="str">
         <f>G66</f>
-        <v>STATION; GLENBURY</v>
+        <v>STATION: GLENBURY</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="10"/>
@@ -9147,18 +9110,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="15">
         <f t="shared" si="4"/>
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -9180,18 +9143,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -9213,18 +9176,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -9246,18 +9209,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -9279,18 +9242,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K119" s="16">
+      <c r="K119" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -9312,18 +9275,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="15">
         <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -9345,18 +9308,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -9378,18 +9341,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -9404,7 +9367,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I123" s="3">
         <f t="shared" si="10"/>
@@ -9414,18 +9377,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -9441,10 +9404,10 @@
       </c>
       <c r="G124" s="11" t="str">
         <f>G58</f>
-        <v>STATION; OVERBROOK; UNDERGROUND</v>
+        <v>STATION: OVERBROOK UNDERGROUND</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="10"/>
@@ -9454,18 +9417,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K124" s="16">
+      <c r="K124" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -9480,7 +9443,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I125" s="3">
         <f t="shared" si="10"/>
@@ -9490,18 +9453,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -9516,7 +9479,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="10"/>
@@ -9526,18 +9489,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K126" s="16">
+      <c r="K126" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -9552,7 +9515,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I127" s="3">
         <f t="shared" si="10"/>
@@ -9562,18 +9525,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K127" s="16">
+      <c r="K127" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -9588,7 +9551,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I128" s="3">
         <f t="shared" si="10"/>
@@ -9598,18 +9561,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -9624,7 +9587,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="10"/>
@@ -9634,18 +9597,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -9660,7 +9623,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I130" s="3">
         <f t="shared" si="10"/>
@@ -9670,18 +9633,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="15">
         <f t="shared" ref="K130:K150" si="12">D130*(1/(F130*1000/(60*60)))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -9696,7 +9659,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I131" s="3">
         <f t="shared" si="10"/>
@@ -9706,18 +9669,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K131" s="16">
+      <c r="K131" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -9732,7 +9695,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I132" s="3">
         <f t="shared" si="10"/>
@@ -9742,18 +9705,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -9769,10 +9732,10 @@
       </c>
       <c r="G133" s="11" t="str">
         <f>G49</f>
-        <v>STATION; INGLEWOOD; UNDERGROUND</v>
+        <v>STATION: INGLEWOOD; UNDERGROUND</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="10"/>
@@ -9782,18 +9745,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -9808,7 +9771,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I134" s="3">
         <f t="shared" si="10"/>
@@ -9818,18 +9781,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A151" si="13">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -9844,7 +9807,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I135" s="3">
         <f t="shared" si="10"/>
@@ -9854,18 +9817,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K135" s="16">
+      <c r="K135" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -9880,7 +9843,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I136" s="3">
         <f t="shared" si="10"/>
@@ -9890,18 +9853,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K136" s="16">
+      <c r="K136" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -9916,7 +9879,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I137" s="3">
         <f t="shared" si="10"/>
@@ -9926,18 +9889,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K137" s="16">
+      <c r="K137" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -9952,7 +9915,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I138" s="3">
         <f t="shared" si="10"/>
@@ -9962,18 +9925,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -9988,7 +9951,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I139" s="3">
         <f t="shared" si="10"/>
@@ -9998,18 +9961,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K139" s="16">
+      <c r="K139" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -10024,7 +9987,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I140" s="3">
         <f t="shared" si="10"/>
@@ -10034,18 +9997,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K140" s="16">
+      <c r="K140" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -10060,7 +10023,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I141" s="3">
         <f t="shared" si="10"/>
@@ -10070,18 +10033,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K141" s="16">
+      <c r="K141" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -10097,10 +10060,10 @@
       </c>
       <c r="G142" s="11" t="str">
         <f>G40</f>
-        <v>STATION; CENTRAL; UNDERDROUND</v>
+        <v>STATION: CENTRAL UNDERGROUND</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="10"/>
@@ -10110,18 +10073,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K142" s="16">
+      <c r="K142" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -10136,7 +10099,7 @@
         <v>20</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I143" s="3">
         <f t="shared" si="10"/>
@@ -10146,18 +10109,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K143" s="16">
+      <c r="K143" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -10172,7 +10135,7 @@
         <v>20</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I144" s="3">
         <f t="shared" si="10"/>
@@ -10182,18 +10145,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K144" s="16">
+      <c r="K144" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -10215,18 +10178,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K145" s="16">
+      <c r="K145" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -10248,18 +10211,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K146" s="16">
+      <c r="K146" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -10281,18 +10244,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K147" s="16">
+      <c r="K147" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -10314,18 +10277,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K148" s="16">
+      <c r="K148" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -10348,18 +10311,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K149" s="16">
+      <c r="K149" s="15">
         <f t="shared" si="12"/>
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -10381,18 +10344,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K150" s="16">
+      <c r="K150" s="15">
         <f t="shared" si="12"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -10414,18 +10377,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K151" s="16">
+      <c r="K151" s="15">
         <f>D151*(1/(F151*1000/(60*60)))</f>
         <v>6.3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K153" s="1">
         <f>MIN(K2:K151)</f>
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K154" s="1">
         <f>K153/1.2</f>
         <v>4.0384615384615392</v>
@@ -10444,48 +10407,48 @@
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="19" spans="11:11" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="11:11" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K20" s="10"/>
     </row>
   </sheetData>
@@ -10506,7 +10469,7 @@
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10519,7 +10482,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/main/TrackModel/Track Layout & Vehicle Data vF2.xlsx
+++ b/src/main/TrackModel/Track Layout & Vehicle Data vF2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="93">
   <si>
     <t>Sections consist of multiple blocks.</t>
   </si>
@@ -1540,7 +1540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -1596,21 +1596,21 @@
       <c r="K1" s="33"/>
       <c r="L1" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="20">
         <v>50</v>
       </c>
       <c r="E2" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="20">
         <v>40</v>
@@ -1618,12 +1618,12 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J2" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="K2" s="18"/>
+        <v>4.13</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
@@ -1633,14 +1633,14 @@
       <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20">
-        <v>2</v>
+      <c r="C3" s="19">
+        <v>1</v>
       </c>
       <c r="D3" s="20">
         <v>50</v>
       </c>
-      <c r="E3" s="20">
-        <v>1</v>
+      <c r="E3" s="21">
+        <v>0.5</v>
       </c>
       <c r="F3" s="20">
         <v>40</v>
@@ -1648,10 +1648,10 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="21">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="7"/>
@@ -1664,13 +1664,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="20">
         <v>50</v>
       </c>
-      <c r="E4" s="21">
-        <v>1.5</v>
+      <c r="E4" s="20">
+        <v>1</v>
       </c>
       <c r="F4" s="20">
         <v>40</v>
@@ -1678,29 +1678,29 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="21">
         <v>0.75</v>
       </c>
-      <c r="J4" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="19">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3</v>
       </c>
       <c r="D5" s="20">
         <v>50</v>
       </c>
-      <c r="E5" s="20">
-        <v>2</v>
+      <c r="E5" s="21">
+        <v>1.5</v>
       </c>
       <c r="F5" s="20">
         <v>40</v>
@@ -1708,13 +1708,13 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="21">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="18" t="s">
@@ -1723,14 +1723,14 @@
       <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20">
-        <v>5</v>
+      <c r="C6" s="19">
+        <v>4</v>
       </c>
       <c r="D6" s="20">
         <v>50</v>
       </c>
-      <c r="E6" s="21">
-        <v>1.5</v>
+      <c r="E6" s="20">
+        <v>2</v>
       </c>
       <c r="F6" s="20">
         <v>40</v>
@@ -1738,10 +1738,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J6" s="21">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1754,13 +1754,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="20">
         <v>50</v>
       </c>
-      <c r="E7" s="20">
-        <v>1</v>
+      <c r="E7" s="21">
+        <v>1.5</v>
       </c>
       <c r="F7" s="20">
         <v>40</v>
@@ -1768,10 +1768,10 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="21">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J7" s="21">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1781,31 +1781,27 @@
         <v>66</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="19">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="20">
+        <v>6</v>
       </c>
       <c r="D8" s="20">
-        <v>75</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.5</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
       </c>
       <c r="F8" s="20">
         <v>40</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="21">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="21">
-        <v>4.13</v>
+        <v>3.75</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1817,22 +1813,26 @@
       <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="20">
-        <v>8</v>
+      <c r="C9" s="19">
+        <v>7</v>
       </c>
       <c r="D9" s="20">
         <v>75</v>
       </c>
-      <c r="E9" s="20">
-        <v>0</v>
+      <c r="E9" s="21">
+        <v>0.5</v>
       </c>
       <c r="F9" s="20">
         <v>40</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="21">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J9" s="21">
         <v>4.13</v>
@@ -1848,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="20">
         <v>75</v>
@@ -1859,9 +1859,7 @@
       <c r="F10" s="20">
         <v>40</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="21">
         <v>0</v>
@@ -1877,10 +1875,10 @@
         <v>66</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="20">
+        <v>9</v>
       </c>
       <c r="D11" s="20">
         <v>75</v>
@@ -1891,7 +1889,9 @@
       <c r="F11" s="20">
         <v>40</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="21">
         <v>0</v>
@@ -1909,14 +1909,14 @@
       <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="20">
-        <v>11</v>
+      <c r="C12" s="19">
+        <v>10</v>
       </c>
       <c r="D12" s="20">
         <v>75</v>
       </c>
-      <c r="E12" s="21">
-        <v>-0.5</v>
+      <c r="E12" s="20">
+        <v>0</v>
       </c>
       <c r="F12" s="20">
         <v>40</v>
@@ -1924,10 +1924,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="21">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="J12" s="21">
-        <v>3.75</v>
+        <v>4.13</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1939,14 +1939,14 @@
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19">
-        <v>12</v>
+      <c r="C13" s="20">
+        <v>11</v>
       </c>
       <c r="D13" s="20">
         <v>75</v>
       </c>
-      <c r="E13" s="20">
-        <v>-1</v>
+      <c r="E13" s="21">
+        <v>-0.5</v>
       </c>
       <c r="F13" s="20">
         <v>40</v>
@@ -1954,10 +1954,10 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="21">
-        <v>-0.75</v>
+        <v>-0.38</v>
       </c>
       <c r="J13" s="21">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1967,16 +1967,16 @@
         <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="20">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="19">
+        <v>12</v>
       </c>
       <c r="D14" s="20">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" s="20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="20">
         <v>40</v>
@@ -1984,10 +1984,10 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="21">
-        <v>-1.4</v>
+        <v>-0.75</v>
       </c>
       <c r="J14" s="21">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -2000,13 +2000,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="20">
-        <v>60</v>
-      </c>
-      <c r="E15" s="21">
-        <v>-1.25</v>
+        <v>70</v>
+      </c>
+      <c r="E15" s="20">
+        <v>-2</v>
       </c>
       <c r="F15" s="20">
         <v>40</v>
@@ -2014,10 +2014,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="21">
-        <v>-0.75</v>
+        <v>-1.4</v>
       </c>
       <c r="J15" s="21">
-        <v>0.85</v>
+        <v>1.6</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2029,27 +2029,25 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="19">
-        <v>15</v>
+      <c r="C16" s="20">
+        <v>14</v>
       </c>
       <c r="D16" s="20">
         <v>60</v>
       </c>
-      <c r="E16" s="20">
-        <v>-1</v>
+      <c r="E16" s="21">
+        <v>-1.25</v>
       </c>
       <c r="F16" s="20">
         <v>40</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="21">
-        <v>-0.6</v>
+        <v>-0.75</v>
       </c>
       <c r="J16" s="21">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2059,31 +2057,29 @@
         <v>66</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="20">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="19">
+        <v>15</v>
       </c>
       <c r="D17" s="20">
-        <v>50</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-0.5</v>
+        <v>60</v>
+      </c>
+      <c r="E17" s="20">
+        <v>-1</v>
       </c>
       <c r="F17" s="20">
         <v>40</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="G17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="21">
-        <v>-0.25</v>
+        <v>-0.6</v>
       </c>
       <c r="J17" s="21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -2095,25 +2091,29 @@
       <c r="B18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="19">
-        <v>17</v>
+      <c r="C18" s="20">
+        <v>16</v>
       </c>
       <c r="D18" s="20">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E18" s="21">
         <v>-0.5</v>
       </c>
       <c r="F18" s="20">
-        <v>55</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="21">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="J18" s="21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2125,25 +2125,25 @@
       <c r="B19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="20">
-        <v>18</v>
+      <c r="C19" s="19">
+        <v>17</v>
       </c>
       <c r="D19" s="20">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E19" s="21">
-        <v>-0.06</v>
+        <v>-0.5</v>
       </c>
       <c r="F19" s="20">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="21">
-        <v>-0.24</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="21">
-        <v>-1.24</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2156,13 +2156,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="20">
         <v>400</v>
       </c>
-      <c r="E20" s="20">
-        <v>0</v>
+      <c r="E20" s="21">
+        <v>-0.06</v>
       </c>
       <c r="F20" s="20">
         <v>70</v>
@@ -2170,7 +2170,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="21">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="J20" s="21">
         <v>-1.24</v>
@@ -2185,11 +2185,11 @@
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="19">
-        <v>20</v>
+      <c r="C21" s="20">
+        <v>19</v>
       </c>
       <c r="D21" s="20">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E21" s="20">
         <v>0</v>
@@ -2213,26 +2213,22 @@
         <v>66</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="20">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C22" s="19">
+        <v>20</v>
       </c>
       <c r="D22" s="20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="20">
         <v>0</v>
       </c>
       <c r="F22" s="20">
-        <v>55</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="21">
         <v>0</v>
       </c>
@@ -2249,8 +2245,8 @@
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="19">
-        <v>22</v>
+      <c r="C23" s="20">
+        <v>21</v>
       </c>
       <c r="D23" s="20">
         <v>100</v>
@@ -2261,8 +2257,12 @@
       <c r="F23" s="20">
         <v>55</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" s="21">
         <v>0</v>
       </c>
@@ -2279,8 +2279,8 @@
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="20">
-        <v>23</v>
+      <c r="C24" s="19">
+        <v>22</v>
       </c>
       <c r="D24" s="20">
         <v>100</v>
@@ -2307,23 +2307,21 @@
         <v>66</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E25" s="20">
         <v>0</v>
       </c>
       <c r="F25" s="20">
-        <v>70</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>35</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="21">
         <v>0</v>
@@ -2341,8 +2339,8 @@
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19">
-        <v>25</v>
+      <c r="C26" s="20">
+        <v>24</v>
       </c>
       <c r="D26" s="20">
         <v>50</v>
@@ -2353,12 +2351,10 @@
       <c r="F26" s="20">
         <v>70</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="G26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="21">
         <v>0</v>
       </c>
@@ -2368,15 +2364,15 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="20">
-        <v>26</v>
+      <c r="C27" s="19">
+        <v>25</v>
       </c>
       <c r="D27" s="20">
         <v>50</v>
@@ -2387,10 +2383,12 @@
       <c r="F27" s="20">
         <v>70</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="G27" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I27" s="21">
         <v>0</v>
       </c>
@@ -2407,8 +2405,8 @@
       <c r="B28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="19">
-        <v>27</v>
+      <c r="C28" s="20">
+        <v>26</v>
       </c>
       <c r="D28" s="20">
         <v>50</v>
@@ -2419,8 +2417,8 @@
       <c r="F28" s="20">
         <v>70</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>73</v>
+      <c r="G28" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="21">
@@ -2439,8 +2437,8 @@
       <c r="B29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="20">
-        <v>28</v>
+      <c r="C29" s="19">
+        <v>27</v>
       </c>
       <c r="D29" s="20">
         <v>50</v>
@@ -2451,8 +2449,8 @@
       <c r="F29" s="20">
         <v>70</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>35</v>
+      <c r="G29" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="21">
@@ -2472,10 +2470,10 @@
         <v>33</v>
       </c>
       <c r="C30" s="20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E30" s="20">
         <v>0</v>
@@ -2503,8 +2501,8 @@
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="19">
-        <v>30</v>
+      <c r="C31" s="20">
+        <v>29</v>
       </c>
       <c r="D31" s="20">
         <v>60</v>
@@ -2535,11 +2533,11 @@
       <c r="B32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="20">
-        <v>31</v>
+      <c r="C32" s="19">
+        <v>30</v>
       </c>
       <c r="D32" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E32" s="20">
         <v>0</v>
@@ -2567,8 +2565,8 @@
       <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="19">
-        <v>32</v>
+      <c r="C33" s="20">
+        <v>31</v>
       </c>
       <c r="D33" s="20">
         <v>50</v>
@@ -2599,8 +2597,8 @@
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="20">
-        <v>33</v>
+      <c r="C34" s="19">
+        <v>32</v>
       </c>
       <c r="D34" s="20">
         <v>50</v>
@@ -2612,7 +2610,7 @@
         <v>70</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="21">
@@ -2632,7 +2630,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="20">
         <v>50</v>
@@ -2644,7 +2642,7 @@
         <v>70</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="21">
@@ -2663,8 +2661,8 @@
       <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="19">
-        <v>35</v>
+      <c r="C36" s="20">
+        <v>34</v>
       </c>
       <c r="D36" s="20">
         <v>50</v>
@@ -2675,12 +2673,10 @@
       <c r="F36" s="20">
         <v>70</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="G36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="21">
         <v>0</v>
       </c>
@@ -2697,8 +2693,8 @@
       <c r="B37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="20">
-        <v>36</v>
+      <c r="C37" s="19">
+        <v>35</v>
       </c>
       <c r="D37" s="20">
         <v>50</v>
@@ -2709,10 +2705,12 @@
       <c r="F37" s="20">
         <v>70</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="7"/>
+      <c r="G37" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I37" s="21">
         <v>0</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="20">
         <v>50</v>
@@ -2761,8 +2759,8 @@
       <c r="B39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="19">
-        <v>38</v>
+      <c r="C39" s="20">
+        <v>37</v>
       </c>
       <c r="D39" s="20">
         <v>50</v>
@@ -2773,8 +2771,8 @@
       <c r="F39" s="20">
         <v>70</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>76</v>
+      <c r="G39" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="21">
@@ -2793,8 +2791,8 @@
       <c r="B40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="20">
-        <v>39</v>
+      <c r="C40" s="19">
+        <v>38</v>
       </c>
       <c r="D40" s="20">
         <v>50</v>
@@ -2805,8 +2803,8 @@
       <c r="F40" s="20">
         <v>70</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>35</v>
+      <c r="G40" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="21">
@@ -2826,10 +2824,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E41" s="20">
         <v>0</v>
@@ -2857,8 +2855,8 @@
       <c r="B42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19">
-        <v>41</v>
+      <c r="C42" s="20">
+        <v>40</v>
       </c>
       <c r="D42" s="20">
         <v>60</v>
@@ -2889,11 +2887,11 @@
       <c r="B43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="20">
-        <v>42</v>
+      <c r="C43" s="19">
+        <v>41</v>
       </c>
       <c r="D43" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E43" s="20">
         <v>0</v>
@@ -2922,7 +2920,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="20">
         <v>50</v>
@@ -2933,7 +2931,7 @@
       <c r="F44" s="20">
         <v>70</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H44" s="7"/>
@@ -2953,8 +2951,8 @@
       <c r="B45" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="19">
-        <v>44</v>
+      <c r="C45" s="20">
+        <v>43</v>
       </c>
       <c r="D45" s="20">
         <v>50</v>
@@ -2965,8 +2963,8 @@
       <c r="F45" s="20">
         <v>70</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>77</v>
+      <c r="G45" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="21">
@@ -2985,8 +2983,8 @@
       <c r="B46" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="20">
-        <v>45</v>
+      <c r="C46" s="19">
+        <v>44</v>
       </c>
       <c r="D46" s="20">
         <v>50</v>
@@ -2997,12 +2995,10 @@
       <c r="F46" s="20">
         <v>70</v>
       </c>
-      <c r="G46" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="G46" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="7"/>
       <c r="I46" s="21">
         <v>0</v>
       </c>
@@ -3017,13 +3013,13 @@
         <v>66</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="20">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E47" s="20">
         <v>0</v>
@@ -3031,10 +3027,12 @@
       <c r="F47" s="20">
         <v>70</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="7"/>
+      <c r="G47" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I47" s="21">
         <v>0</v>
       </c>
@@ -3051,8 +3049,8 @@
       <c r="B48" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="19">
-        <v>47</v>
+      <c r="C48" s="20">
+        <v>46</v>
       </c>
       <c r="D48" s="20">
         <v>75</v>
@@ -3063,8 +3061,8 @@
       <c r="F48" s="20">
         <v>70</v>
       </c>
-      <c r="G48" s="24" t="s">
-        <v>27</v>
+      <c r="G48" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="21">
@@ -3083,8 +3081,8 @@
       <c r="B49" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="20">
-        <v>48</v>
+      <c r="C49" s="19">
+        <v>47</v>
       </c>
       <c r="D49" s="20">
         <v>75</v>
@@ -3096,11 +3094,9 @@
         <v>70</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H49" s="7"/>
       <c r="I49" s="21">
         <v>0</v>
       </c>
@@ -3115,22 +3111,26 @@
         <v>66</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C50" s="20">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E50" s="20">
         <v>0</v>
       </c>
       <c r="F50" s="20">
-        <v>60</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I50" s="21">
         <v>0</v>
       </c>
@@ -3147,8 +3147,8 @@
       <c r="B51" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="19">
-        <v>50</v>
+      <c r="C51" s="20">
+        <v>49</v>
       </c>
       <c r="D51" s="20">
         <v>50</v>
@@ -3177,8 +3177,8 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="20">
-        <v>51</v>
+      <c r="C52" s="19">
+        <v>50</v>
       </c>
       <c r="D52" s="20">
         <v>50</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="20">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3208,10 +3208,10 @@
         <v>40</v>
       </c>
       <c r="C53" s="20">
-        <v>52</v>
-      </c>
-      <c r="D53" s="21">
-        <v>43.2</v>
+        <v>51</v>
+      </c>
+      <c r="D53" s="20">
+        <v>50</v>
       </c>
       <c r="E53" s="20">
         <v>0</v>
@@ -3219,9 +3219,7 @@
       <c r="F53" s="20">
         <v>55</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="21">
         <v>0</v>
@@ -3239,11 +3237,11 @@
       <c r="B54" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="19">
-        <v>53</v>
-      </c>
-      <c r="D54" s="20">
-        <v>50</v>
+      <c r="C54" s="20">
+        <v>52</v>
+      </c>
+      <c r="D54" s="21">
+        <v>43.2</v>
       </c>
       <c r="E54" s="20">
         <v>0</v>
@@ -3251,7 +3249,9 @@
       <c r="F54" s="20">
         <v>55</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="21">
         <v>0</v>
@@ -3269,8 +3269,8 @@
       <c r="B55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="20">
-        <v>54</v>
+      <c r="C55" s="19">
+        <v>53</v>
       </c>
       <c r="D55" s="20">
         <v>50</v>
@@ -3297,16 +3297,16 @@
         <v>66</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C56" s="20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="20">
-        <v>75</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0.5</v>
+        <v>50</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0</v>
       </c>
       <c r="F56" s="20">
         <v>55</v>
@@ -3314,10 +3314,10 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="21">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="J56" s="21">
-        <v>-0.87</v>
+        <v>-1.24</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -3329,8 +3329,8 @@
       <c r="B57" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="19">
-        <v>56</v>
+      <c r="C57" s="20">
+        <v>55</v>
       </c>
       <c r="D57" s="20">
         <v>75</v>
@@ -3347,7 +3347,7 @@
         <v>0.38</v>
       </c>
       <c r="J57" s="21">
-        <v>-0.49</v>
+        <v>-0.87</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3359,8 +3359,8 @@
       <c r="B58" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="20">
-        <v>57</v>
+      <c r="C58" s="19">
+        <v>56</v>
       </c>
       <c r="D58" s="20">
         <v>75</v>
@@ -3377,7 +3377,7 @@
         <v>0.38</v>
       </c>
       <c r="J58" s="21">
-        <v>-0.12</v>
+        <v>-0.49</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3387,16 +3387,16 @@
         <v>66</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" s="20">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="20">
         <v>75</v>
       </c>
-      <c r="E59" s="20">
-        <v>1</v>
+      <c r="E59" s="21">
+        <v>0.5</v>
       </c>
       <c r="F59" s="20">
         <v>55</v>
@@ -3404,10 +3404,10 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="21">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="J59" s="21">
-        <v>0.63</v>
+        <v>-0.12</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -3419,14 +3419,14 @@
       <c r="B60" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="19">
-        <v>59</v>
+      <c r="C60" s="20">
+        <v>58</v>
       </c>
       <c r="D60" s="20">
         <v>75</v>
       </c>
-      <c r="E60" s="21">
-        <v>0.5</v>
+      <c r="E60" s="20">
+        <v>1</v>
       </c>
       <c r="F60" s="20">
         <v>55</v>
@@ -3434,10 +3434,10 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="21">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="J60" s="21">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -3449,26 +3449,22 @@
       <c r="B61" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="20">
-        <v>60</v>
+      <c r="C61" s="19">
+        <v>59</v>
       </c>
       <c r="D61" s="20">
         <v>75</v>
       </c>
-      <c r="E61" s="20">
-        <v>0</v>
+      <c r="E61" s="21">
+        <v>0.5</v>
       </c>
       <c r="F61" s="20">
         <v>55</v>
       </c>
-      <c r="G61" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
       <c r="I61" s="21">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J61" s="21">
         <v>1.01</v>
@@ -3481,27 +3477,31 @@
         <v>66</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C62" s="20">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="20">
         <v>75</v>
       </c>
-      <c r="E62" s="21">
-        <v>-0.5</v>
+      <c r="E62" s="20">
+        <v>0</v>
       </c>
       <c r="F62" s="20">
         <v>55</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="G62" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I62" s="21">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="J62" s="21">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -3513,14 +3513,14 @@
       <c r="B63" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="19">
-        <v>62</v>
+      <c r="C63" s="20">
+        <v>61</v>
       </c>
       <c r="D63" s="20">
         <v>75</v>
       </c>
-      <c r="E63" s="20">
-        <v>-1</v>
+      <c r="E63" s="21">
+        <v>-0.5</v>
       </c>
       <c r="F63" s="20">
         <v>55</v>
@@ -3528,10 +3528,10 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="21">
-        <v>-0.75</v>
+        <v>-0.38</v>
       </c>
       <c r="J63" s="21">
-        <v>-0.12</v>
+        <v>0.63</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -3543,8 +3543,8 @@
       <c r="B64" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="20">
-        <v>63</v>
+      <c r="C64" s="19">
+        <v>62</v>
       </c>
       <c r="D64" s="20">
         <v>75</v>
@@ -3561,7 +3561,7 @@
         <v>-0.75</v>
       </c>
       <c r="J64" s="21">
-        <v>-0.87</v>
+        <v>-0.12</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -3571,16 +3571,16 @@
         <v>66</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C65" s="20">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="20">
         <v>75</v>
       </c>
-      <c r="E65" s="21">
-        <v>-0.5</v>
+      <c r="E65" s="20">
+        <v>-1</v>
       </c>
       <c r="F65" s="20">
         <v>55</v>
@@ -3588,10 +3588,10 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="21">
-        <v>-0.38</v>
+        <v>-0.75</v>
       </c>
       <c r="J65" s="21">
-        <v>-1.24</v>
+        <v>-0.87</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -3603,14 +3603,14 @@
       <c r="B66" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="19">
-        <v>65</v>
+      <c r="C66" s="20">
+        <v>64</v>
       </c>
       <c r="D66" s="20">
         <v>75</v>
       </c>
-      <c r="E66" s="20">
-        <v>0</v>
+      <c r="E66" s="21">
+        <v>-0.5</v>
       </c>
       <c r="F66" s="20">
         <v>55</v>
@@ -3618,7 +3618,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="21">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="J66" s="21">
         <v>-1.24</v>
@@ -3633,8 +3633,8 @@
       <c r="B67" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="20">
-        <v>66</v>
+      <c r="C67" s="19">
+        <v>65</v>
       </c>
       <c r="D67" s="20">
         <v>75</v>
@@ -3661,13 +3661,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C68" s="20">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E68" s="20">
         <v>0</v>
@@ -3675,9 +3675,7 @@
       <c r="F68" s="20">
         <v>55</v>
       </c>
-      <c r="G68" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="21">
         <v>0</v>
@@ -3693,10 +3691,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="19">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="C69" s="20">
+        <v>67</v>
       </c>
       <c r="D69" s="20">
         <v>50</v>
@@ -3727,8 +3725,8 @@
       <c r="B70" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="20">
-        <v>69</v>
+      <c r="C70" s="19">
+        <v>68</v>
       </c>
       <c r="D70" s="20">
         <v>50</v>
@@ -3760,7 +3758,7 @@
         <v>54</v>
       </c>
       <c r="C71" s="20">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="20">
         <v>50</v>
@@ -3789,10 +3787,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="19">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="C72" s="20">
+        <v>70</v>
       </c>
       <c r="D72" s="20">
         <v>50</v>
@@ -3821,10 +3819,10 @@
         <v>66</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="20">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="C73" s="19">
+        <v>71</v>
       </c>
       <c r="D73" s="20">
         <v>50</v>
@@ -3853,10 +3851,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="20">
         <v>50</v>
@@ -3887,8 +3885,8 @@
       <c r="B75" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="19">
-        <v>74</v>
+      <c r="C75" s="20">
+        <v>73</v>
       </c>
       <c r="D75" s="20">
         <v>50</v>
@@ -3919,8 +3917,8 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="20">
-        <v>75</v>
+      <c r="C76" s="19">
+        <v>74</v>
       </c>
       <c r="D76" s="20">
         <v>50</v>
@@ -3949,10 +3947,10 @@
         <v>66</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C77" s="20">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="20">
         <v>50</v>
@@ -3978,23 +3976,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="20">
+        <v>76</v>
+      </c>
+      <c r="D78" s="20">
+        <v>50</v>
+      </c>
+      <c r="E78" s="20">
+        <v>0</v>
+      </c>
+      <c r="F78" s="20">
+        <v>55</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="I78" s="21">
+        <v>0</v>
+      </c>
+      <c r="J78" s="21">
+        <v>-1.24</v>
+      </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="23">
-        <f>A78</f>
+      <c r="A79" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="19"/>
@@ -5207,6 +5221,22 @@
       <c r="J154" s="28"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="23">
+        <f>A154</f>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5290,7 +5320,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="20">
         <v>45</v>
@@ -5298,7 +5328,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="21">
         <v>0.5</v>
@@ -10284,7 +10314,7 @@
         <v>100</v>
       </c>
       <c r="E153" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F153" s="20">
         <v>45</v>
@@ -10292,7 +10322,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J153" s="21">
         <v>0.5</v>

--- a/src/main/TrackModel/Track Layout & Vehicle Data vF2.xlsx
+++ b/src/main/TrackModel/Track Layout & Vehicle Data vF2.xlsx
@@ -229,10 +229,10 @@
     <t>SWITCH TO/FROM YARD (75-yard)</t>
   </si>
   <si>
-    <t>SWITCH (15-16; 1-16)</t>
+    <t/>
   </si>
   <si>
-    <t>STATION: HERRON AVE</t>
+    <t>STATION: HERRON AVE; SWITCH (15-16; 1-16)</t>
   </si>
   <si>
     <t>STATION: SWISSVILLE</t>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -514,6 +514,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,7 +856,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="44" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="45" width="31.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -863,18 +866,18 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -894,8 +897,8 @@
       <c r="G3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -945,7 +948,7 @@
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -963,7 +966,7 @@
       <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="18" t="s">
         <v>11</v>
       </c>
@@ -991,7 +994,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="22">
         <f>E2*D2/100</f>
       </c>
@@ -1019,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="37"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="22">
         <f>E3*D3/100</f>
       </c>
@@ -1047,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="37"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="22">
         <f>E4*D4/100</f>
       </c>
@@ -1075,7 +1078,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="37"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="22">
         <f>E5*D5/100</f>
       </c>
@@ -1105,7 +1108,7 @@
       <c r="G6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="22">
         <f>E6*D6/100</f>
       </c>
@@ -1135,7 +1138,7 @@
       <c r="G7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="22">
         <f>E7*D7/100</f>
       </c>
@@ -1163,7 +1166,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="22">
         <f>E8*D8/100</f>
       </c>
@@ -1191,7 +1194,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="37"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="22">
         <f>E9*D9/100</f>
       </c>
@@ -1219,7 +1222,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="22">
         <f>E10*D10/100</f>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="G11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="22">
         <f>E11*D11/100</f>
       </c>
@@ -1279,7 +1282,7 @@
       <c r="G12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="22">
         <f>E12*D12/100</f>
       </c>
@@ -1307,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="H13" s="37"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="22">
         <f>E13*D13/100</f>
       </c>
@@ -1335,7 +1338,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="19"/>
-      <c r="H14" s="37"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="22">
         <f>E14*D14/100</f>
       </c>
@@ -1363,7 +1366,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="22">
         <f>E15*D15/100</f>
       </c>
@@ -1393,7 +1396,7 @@
       <c r="G16" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="22">
         <f>E16*D16/100</f>
       </c>
@@ -1458,7 +1461,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="29"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1499,19 +1502,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
-      <c r="B25" s="39">
+      <c r="B25" s="40">
         <v>1</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="40">
         <v>2</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="40">
         <v>3</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="40">
         <v>4</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="40">
         <v>5</v>
       </c>
       <c r="G25" s="7"/>
@@ -1553,7 +1556,7 @@
   <cols>
     <col min="1" max="1" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="35" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="36" width="8.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="32" width="11.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="32" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="32" width="13.290714285714287" customWidth="1" bestFit="1"/>
@@ -2074,7 +2077,7 @@
       <c r="F17" s="21">
         <v>40</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="35" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="7"/>
